--- a/report.xlsx
+++ b/report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50" count="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99" count="399">
   <si>
     <t>ID</t>
   </si>
@@ -161,6 +161,153 @@
   </si>
   <si>
     <t>qwe 12 1</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>CLICK</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>998976331809</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>998936981802</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>19600.00</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>18600.00</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>16600.00</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>10600.00</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>22200.00</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11400.00</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>12400.00</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>11200.00</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -2772,15 +2919,33 @@
       <c r="AA23" s="23"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
+      <c r="A24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="20" t="n">
+        <v>44889.83977478009</v>
+      </c>
       <c r="J24" s="21"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
@@ -2801,15 +2966,33 @@
       <c r="AA24" s="23"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
+      <c r="A25" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="20" t="n">
+        <v>44889.77958501157</v>
+      </c>
       <c r="J25" s="21"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
@@ -2830,15 +3013,33 @@
       <c r="AA25" s="23"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
+      <c r="A26" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20" t="n">
+        <v>44889.778086053244</v>
+      </c>
       <c r="J26" s="21"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
@@ -2859,15 +3060,33 @@
       <c r="AA26" s="23"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
+      <c r="A27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="20" t="n">
+        <v>44889.76015903935</v>
+      </c>
       <c r="J27" s="21"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
@@ -2888,15 +3107,33 @@
       <c r="AA27" s="23"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
+      <c r="A28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="20" t="n">
+        <v>44889.74620980324</v>
+      </c>
       <c r="J28" s="21"/>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
@@ -2917,15 +3154,33 @@
       <c r="AA28" s="23"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="20"/>
+      <c r="A29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="20" t="n">
+        <v>44889.72727498843</v>
+      </c>
       <c r="J29" s="21"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
@@ -2946,15 +3201,33 @@
       <c r="AA29" s="23"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20"/>
+      <c r="A30" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="20" t="n">
+        <v>44887.67695997685</v>
+      </c>
       <c r="J30" s="21"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
@@ -2975,15 +3248,33 @@
       <c r="AA30" s="23"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="20"/>
+      <c r="A31" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="20" t="n">
+        <v>44887.656137337966</v>
+      </c>
       <c r="J31" s="21"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
@@ -3004,15 +3295,33 @@
       <c r="AA31" s="23"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="20"/>
+      <c r="A32" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="20" t="n">
+        <v>44886.98218277778</v>
+      </c>
       <c r="J32" s="21"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
@@ -3033,15 +3342,33 @@
       <c r="AA32" s="23"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
+      <c r="A33" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="20" t="n">
+        <v>44886.98180375</v>
+      </c>
       <c r="J33" s="21"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
@@ -3062,15 +3389,33 @@
       <c r="AA33" s="23"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="20"/>
+      <c r="A34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="20" t="n">
+        <v>44883.75548409722</v>
+      </c>
       <c r="J34" s="21"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
@@ -3091,15 +3436,33 @@
       <c r="AA34" s="23"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="20"/>
+      <c r="A35" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="20" t="n">
+        <v>44883.735159537035</v>
+      </c>
       <c r="J35" s="21"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
@@ -3120,15 +3483,33 @@
       <c r="AA35" s="23"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="20"/>
+      <c r="A36" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="20" t="n">
+        <v>44883.735078101854</v>
+      </c>
       <c r="J36" s="21"/>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
@@ -3149,15 +3530,33 @@
       <c r="AA36" s="23"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="20"/>
+      <c r="A37" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="20" t="n">
+        <v>44883.734941284725</v>
+      </c>
       <c r="J37" s="21"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
@@ -3178,15 +3577,33 @@
       <c r="AA37" s="23"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="20"/>
+      <c r="A38" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="20" t="n">
+        <v>44883.734644571756</v>
+      </c>
       <c r="J38" s="21"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
@@ -3207,15 +3624,33 @@
       <c r="AA38" s="23"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="20"/>
+      <c r="A39" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="20" t="n">
+        <v>44883.73393101852</v>
+      </c>
       <c r="J39" s="21"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
@@ -3236,15 +3671,33 @@
       <c r="AA39" s="23"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="20"/>
+      <c r="A40" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="20" t="n">
+        <v>44883.72317881945</v>
+      </c>
       <c r="J40" s="21"/>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
@@ -3265,15 +3718,33 @@
       <c r="AA40" s="23"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="20"/>
+      <c r="A41" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="20" t="n">
+        <v>44883.723156168984</v>
+      </c>
       <c r="J41" s="21"/>
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
@@ -3294,15 +3765,33 @@
       <c r="AA41" s="23"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
+      <c r="A42" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="20" t="n">
+        <v>44883.71601587963</v>
+      </c>
       <c r="J42" s="21"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
@@ -3323,15 +3812,33 @@
       <c r="AA42" s="23"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="20"/>
+      <c r="A43" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="20" t="n">
+        <v>44883.71595859954</v>
+      </c>
       <c r="J43" s="21"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
@@ -3352,15 +3859,33 @@
       <c r="AA43" s="23"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
+      <c r="A44" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="20" t="n">
+        <v>44883.70995664352</v>
+      </c>
       <c r="J44" s="21"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
@@ -3381,15 +3906,33 @@
       <c r="AA44" s="23"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="20"/>
+      <c r="A45" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="20" t="n">
+        <v>44883.709936087966</v>
+      </c>
       <c r="J45" s="21"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
@@ -3410,15 +3953,33 @@
       <c r="AA45" s="23"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="20"/>
+      <c r="A46" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="20" t="n">
+        <v>44883.70409840278</v>
+      </c>
       <c r="J46" s="21"/>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
@@ -3439,15 +4000,33 @@
       <c r="AA46" s="23"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="20"/>
+      <c r="A47" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="20" t="n">
+        <v>44883.70081841435</v>
+      </c>
       <c r="J47" s="21"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
@@ -3468,15 +4047,33 @@
       <c r="AA47" s="23"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="20"/>
+      <c r="A48" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="20" t="n">
+        <v>44883.70065489583</v>
+      </c>
       <c r="J48" s="21"/>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
@@ -3497,15 +4094,33 @@
       <c r="AA48" s="23"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="20"/>
+      <c r="A49" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="20" t="n">
+        <v>44883.70055230324</v>
+      </c>
       <c r="J49" s="21"/>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
@@ -3526,15 +4141,33 @@
       <c r="AA49" s="23"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="20"/>
+      <c r="A50" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="20" t="n">
+        <v>44883.48341476852</v>
+      </c>
       <c r="J50" s="21"/>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
@@ -3555,15 +4188,33 @@
       <c r="AA50" s="23"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="20"/>
+      <c r="A51" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" s="20" t="n">
+        <v>44883.47759199074</v>
+      </c>
       <c r="J51" s="21"/>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
@@ -3584,15 +4235,33 @@
       <c r="AA51" s="23"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="20"/>
+      <c r="A52" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" s="20" t="n">
+        <v>44883.420301921295</v>
+      </c>
       <c r="J52" s="21"/>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
@@ -3613,15 +4282,33 @@
       <c r="AA52" s="23"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="20"/>
+      <c r="A53" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" s="20" t="n">
+        <v>44883.419399479164</v>
+      </c>
       <c r="J53" s="21"/>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
@@ -3642,15 +4329,33 @@
       <c r="AA53" s="23"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="20"/>
+      <c r="A54" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="20" t="n">
+        <v>44883.41842282408</v>
+      </c>
       <c r="J54" s="21"/>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
@@ -3671,15 +4376,33 @@
       <c r="AA54" s="23"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="20"/>
+      <c r="A55" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" s="20" t="n">
+        <v>44882.61911356481</v>
+      </c>
       <c r="J55" s="21"/>
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
@@ -3700,15 +4423,33 @@
       <c r="AA55" s="23"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="20"/>
+      <c r="A56" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="20" t="n">
+        <v>44882.61876162037</v>
+      </c>
       <c r="J56" s="21"/>
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
@@ -3729,15 +4470,33 @@
       <c r="AA56" s="23"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="20"/>
+      <c r="A57" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="20" t="n">
+        <v>44882.61790601852</v>
+      </c>
       <c r="J57" s="21"/>
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
@@ -3758,15 +4517,33 @@
       <c r="AA57" s="23"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="20"/>
+      <c r="A58" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" s="20" t="n">
+        <v>44882.573798460646</v>
+      </c>
       <c r="J58" s="21"/>
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
